--- a/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FACE9B-7FAD-4E11-AA1B-4A3218CD5427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2803F9-55B9-4429-A83F-8BD868F9BE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B459C31-F691-4EE8-A3E0-D773EEF2E69F}"/>
   </bookViews>
   <sheets>
-    <sheet name="BẢNG CHẤM CÔNG HÀNH CHÍNH NT" sheetId="1" r:id="rId1"/>
+    <sheet name="BẢNG CHẤM CÔNG HÀNH CHÍNH" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BẢNG CHẤM CÔNG HÀNH CHÍNH NT'!$A$4:$AP$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BẢNG CHẤM CÔNG HÀNH CHÍNH'!$A$4:$AP$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2803F9-55B9-4429-A83F-8BD868F9BE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D98F7D-5518-4AE5-9BDA-33D58565A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B459C31-F691-4EE8-A3E0-D773EEF2E69F}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>BẢNG CHẤM CÔNG HÀNH CHÍNH NAM THUẬN</t>
-  </si>
-  <si>
     <t>THÁNG 10 NĂM 2024</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Chính thức</t>
+  </si>
+  <si>
+    <t>BẢNG CHẤM CÔNG HÀNH CHÍNH</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
       <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ4" sqref="AQ1:AS1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:42" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -653,7 +653,7 @@
     </row>
     <row r="2" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -743,130 +743,130 @@
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D98F7D-5518-4AE5-9BDA-33D58565A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4FBA5-B3B3-4F8F-8181-2EE92F2295DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B459C31-F691-4EE8-A3E0-D773EEF2E69F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BẢNG CHẤM CÔNG HÀNH CHÍNH" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BẢNG CHẤM CÔNG HÀNH CHÍNH'!$A$4:$AP$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BẢNG CHẤM CÔNG HÀNH CHÍNH'!$A$3:$AP$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -192,18 +192,15 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,14 +238,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,8 +249,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,306 +569,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD673445-ADF1-4376-A26B-96CF6537E950}">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:AP2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="8" width="11.140625" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="11" width="12" customWidth="1"/>
-    <col min="12" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="40" width="4" customWidth="1"/>
+    <col min="10" max="40" width="10.7109375" customWidth="1"/>
     <col min="41" max="41" width="10" customWidth="1"/>
     <col min="42" max="42" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
     </row>
     <row r="2" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
     </row>
-    <row r="3" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-    </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:42" s="5" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AH3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AK3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AL3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AM3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AN3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AO3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AP3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AP4" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:AP1"/>
     <mergeCell ref="A2:AP2"/>
-    <mergeCell ref="A3:AP3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_hanhchinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4FBA5-B3B3-4F8F-8181-2EE92F2295DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E645D-58BE-4015-BE56-3F0F1B24B85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B459C31-F691-4EE8-A3E0-D773EEF2E69F}"/>
   </bookViews>
@@ -243,17 +243,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +572,7 @@
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,222 +590,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
     </row>
     <row r="2" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
     </row>
-    <row r="3" spans="1:42" s="5" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:42" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
